--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Osama Shehata Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عزت الحديدى عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed ezzat</x:t>
   </x:si>
   <x:si>
     <x:t>4230142</x:t>
@@ -281,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -704,7 +713,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.8906941319</x:v>
+        <x:v>45922.9190394329</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -736,7 +745,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.4661326736</x:v>
+        <x:v>45912.8906941319</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -768,7 +777,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.4666009607</x:v>
+        <x:v>45914.4661326736</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -800,7 +809,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.8957978819</x:v>
+        <x:v>45914.4666009607</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -832,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.9030490393</x:v>
+        <x:v>45912.8957978819</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +873,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45912.9030490393</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +905,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.8884761921</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8884761921</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.892190544</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45912.892190544</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1146,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد هشام محمد ابوالعزايم مختار</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Hesham Mohmed</x:t>
+    <x:t>Ahmed Hisham Muhammad Abu Al-Azayem, Mukhtar</x:t>
   </x:si>
   <x:si>
     <x:t>1210350</x:t>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Ahmed Hisham Muhammad Abu Al-Azayem, Mukhtar</x:t>
   </x:si>
   <x:si>
+    <x:t>1220163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210350</x:t>
   </x:si>
   <x:si>
@@ -102,7 +111,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Fares Salaheldin Ahmed Fouad</x:t>
+    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220267</x:t>
@@ -290,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -809,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.4666009607</x:v>
+        <x:v>45925.3913975347</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -841,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.8957978819</x:v>
+        <x:v>45914.4666009607</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -873,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.9030490393</x:v>
+        <x:v>45912.8957978819</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -905,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45912.9030490393</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8884761921</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8884761921</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.892190544</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1161,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45912.892190544</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1178,6 +1187,38 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>3230001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أسر وليد حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aser Waled Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220029</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>Daniel Raed Mounir Takawi</x:t>
   </x:si>
   <x:si>
+    <x:t>1220238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رامز لبيب حلمى لبيب معوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramez Labib Helmy Labib</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220260</x:t>
   </x:si>
   <x:si>
@@ -96,15 +114,6 @@
     <x:t>Alyeldeen Ahmed Gamal Aly Abdelmegid</x:t>
   </x:si>
   <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>2220009</x:t>
   </x:si>
   <x:si>
@@ -132,6 +141,24 @@
     <x:t>Kreem Amr Mohamed Saad Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مارى مرقص جورج ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary Morcos George Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود مصطفى سيد امين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220279</x:t>
   </x:si>
   <x:si>
@@ -175,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Khaled Fahmy Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف فرج حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Farag</x:t>
   </x:si>
   <x:si>
     <x:t>4230188</x:t>
@@ -299,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -690,7 +726,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45912.9019736921</x:v>
+        <x:v>45927.4289789699</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -722,7 +758,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45922.9190394329</x:v>
+        <x:v>45912.9019736921</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -754,7 +790,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.8906941319</x:v>
+        <x:v>45922.9190394329</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -786,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.4661326736</x:v>
+        <x:v>45912.8906941319</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -818,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45925.3913975347</x:v>
+        <x:v>45914.4661326736</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -850,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.4666009607</x:v>
+        <x:v>45925.3913975347</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8957978819</x:v>
+        <x:v>45914.4666009607</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.9030490393</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45912.8957978819</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.8884761921</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45912.8884761921</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.892190544</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1255,134 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45912.8902102199</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45927.627131713</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.4170032755</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Ramez Labib Helmy Labib</x:t>
   </x:si>
   <x:si>
+    <x:t>1200416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شهاب أشرف طه غلاب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shehab Ashraf Taha Ghalab</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220260</x:t>
   </x:si>
   <x:si>
@@ -220,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>YUSSEF MOHAMMED HUSSIEN MOHAMMED ABD ELHALIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -335,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -982,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.8957978819</x:v>
+        <x:v>45928.5471930556</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45912.8957978819</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4148462153</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.8884761921</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8884761921</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.627131713</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4170032755</x:v>
+        <x:v>45927.627131713</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45927.4170032755</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1401,70 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45928.5550631944</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد خالد عبد الهادي ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAhmed Khaled Abd Al-hady Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>3230001</x:t>
   </x:si>
   <x:si>
@@ -202,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Hala Hany Ramadan Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسين إسلام صلاح عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassin Islam Salah Abdelhameed</x:t>
   </x:si>
   <x:si>
     <x:t>4230173</x:t>
@@ -353,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -744,7 +762,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.4289789699</x:v>
+        <x:v>45928.6741772338</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -776,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.9019736921</x:v>
+        <x:v>45927.4289789699</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -808,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45922.9190394329</x:v>
+        <x:v>45912.9019736921</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.8906941319</x:v>
+        <x:v>45922.9190394329</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.4661326736</x:v>
+        <x:v>45912.8906941319</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45925.3913975347</x:v>
+        <x:v>45914.4661326736</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.4666009607</x:v>
+        <x:v>45925.3913975347</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45914.4666009607</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.5471930556</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.8957978819</x:v>
+        <x:v>45928.5471930556</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45912.8957978819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4148462153</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8884761921</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8884761921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.627131713</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4170032755</x:v>
+        <x:v>45928.750753669</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45927.627131713</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.5550631944</x:v>
+        <x:v>45927.4170032755</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1483,70 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45928.5550631944</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Yassin Islam Salah Abdelhameed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف خالد فهمى عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Khaled Fahmy Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>4230187</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1434,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.627131713</x:v>
+        <x:v>45927.4170032755</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4170032755</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45928.5550631944</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45928.5550631944</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Alyeldeen Ahmed Gamal Aly Abdelmegid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر الوليد محمد السيد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
     <x:t>2220009</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45930.4128716088</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4148462153</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8884761921</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8884761921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.750753669</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4170032755</x:v>
+        <x:v>45928.750753669</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45927.4170032755</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.5550631944</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45928.5550631944</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد اشرف وفا محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled ashraf wafa mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210350</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -986,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.4666009607</x:v>
+        <x:v>45931.3096267361</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45914.4666009607</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.5471930556</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8957978819</x:v>
+        <x:v>45928.5471930556</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45930.4128716088</x:v>
+        <x:v>45912.8957978819</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45930.4128716088</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4148462153</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8884761921</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8884761921</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.750753669</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4170032755</x:v>
+        <x:v>45928.750753669</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45927.4170032755</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45928.5550631944</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45928.5550631944</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -93,7 +93,7 @@
     <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
   </x:si>
   <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+    <x:t>Adham Medhat Abdelmoaz Elazab Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1220008</x:t>

--- a/downloaded_files/EPES305_Lecture-35878.xlsx
+++ b/downloaded_files/EPES305_Lecture-35878.xlsx
@@ -156,7 +156,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
+    <x:t>Fares Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220267</x:t>
